--- a/models/types1-24/Best_VotingEnsemble/ModelMetrics.xlsx
+++ b/models/types1-24/Best_VotingEnsemble/ModelMetrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/pfHRP_MLModel/models/types1-24/Best_VotingEnsemble/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\types1-24\Best_VotingEnsemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91199B6-3A04-B940-B057-0719042887FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEBA63F-1141-4555-B45E-AF994E08CB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15340" xr2:uid="{DA73E4ED-A3F7-A94F-B9FD-B2DD33FE7DD1}"/>
+    <workbookView xWindow="13620" yWindow="3435" windowWidth="14325" windowHeight="8010" xr2:uid="{DA73E4ED-A3F7-A94F-B9FD-B2DD33FE7DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="VotingEnsemble" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Run ID</t>
   </si>
   <si>
-    <t>10b795b5-cc29-44ae-b735-488b469f3073</t>
-  </si>
-  <si>
     <t>VotingEnsemble</t>
+  </si>
+  <si>
+    <t>217f4a22-5141-4c51-9f1c-543416fef430_40</t>
   </si>
 </sst>
 </file>
@@ -462,197 +462,197 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.73094999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.82857000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.71082999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.67942000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.80815999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.71082999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.75031999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.70647000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.69740000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.80506999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.78969999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.80815999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.76749999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.69167000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.71972000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.66795000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.73094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.82857000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.72697999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.79981999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.62192999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.55188000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.53091999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.39288000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.38333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.67310000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.73094999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.82857000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.81845000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.80245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.76749999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.69167000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.73094999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.82857000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.73094999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.82857000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.70374999999999999</v>
+        <v>0.86919000000000002</v>
       </c>
     </row>
   </sheetData>
